--- a/GenerateApp/tables_long_horiz/Data/5/source.xlsx
+++ b/GenerateApp/tables_long_horiz/Data/5/source.xlsx
@@ -11,6 +11,32 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Jacobs Engineering Group</t>
+  </si>
+  <si>
+    <t>Dentsply Sirona</t>
+  </si>
+  <si>
+    <t>Twenty-First Century Fox Class A</t>
+  </si>
+  <si>
+    <t>EQT Corporation</t>
+  </si>
+  <si>
+    <t>Duke Energy</t>
+  </si>
+  <si>
+    <t>United Technologies</t>
+  </si>
+  <si>
+    <t>ResMed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,89 +95,64 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
+              <a:srgbClr val="808080"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2009</c:v>
+                  <c:v>Jacobs Engineering Group</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Dentsply Sirona</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Twenty-First Century Fox Class A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>EQT Corporation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>Duke Energy</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
+                  <c:v>United Technologies</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>ResMed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$11</c:f>
+              <c:f>Sheet1!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>284</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>648</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>689</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>370</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>605</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -166,14 +167,15 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -226,10 +228,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -536,98 +538,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>2009</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2010</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>648</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2011</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2012</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>689</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2013</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>159</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2014</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>370</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2015</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>605</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
